--- a/biology/Histoire de la zoologie et de la botanique/Stanisław_Konstanty_Pietruski/Stanisław_Konstanty_Pietruski.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Stanisław_Konstanty_Pietruski/Stanisław_Konstanty_Pietruski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Stanis%C5%82aw_Konstanty_Pietruski</t>
+          <t>Stanisław_Konstanty_Pietruski</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stanislaw Konstanty Pietruski (né le 11 mars 1811 à Podhorodce et décédé le 28 janvier 1874 à Zarwanica) est un zoologiste, biologiste, ornithologue et pomologue polonais spécialisé dans la faune des Carpates. En 1833, il fonde le premier zoo polonais dans sa région d'origine de Podhorce.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Stanis%C5%82aw_Konstanty_Pietruski</t>
+          <t>Stanisław_Konstanty_Pietruski</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les années 1828-1830, Stanislaw Pietruski étudie les sciences naturelles à l'Université de Lviv avec Aleksandra Zawadzkiego puis poursuit ses études en Allemagne.
-Il s'installe à Podhorodce. De 1833 à 1848, il fonde et maintient une ménagerie contenant 500 espèces, principalement de faune polonaise, et qui, de l'avis de Alfred Edmund Brehm est le plus grand zoo privé de l'époque[1]. Il est probablement le premier à détenir un Vison d'Europe (Mustela lutreola) en captivité, ce dont il est très fier car « Linné et Buffon n'ont jamais pu en voir un vivant »[2]. Il effectue des recherches sur la biologie et la psychologie des animaux. En 1848, la destruction d'une grande partie de ses collections zoologiques par un incendie le conduit à se consacrer principalement à la recherche dans le domaine de l'horticulture et de l'agriculture. 
+Il s'installe à Podhorodce. De 1833 à 1848, il fonde et maintient une ménagerie contenant 500 espèces, principalement de faune polonaise, et qui, de l'avis de Alfred Edmund Brehm est le plus grand zoo privé de l'époque. Il est probablement le premier à détenir un Vison d'Europe (Mustela lutreola) en captivité, ce dont il est très fier car « Linné et Buffon n'ont jamais pu en voir un vivant ». Il effectue des recherches sur la biologie et la psychologie des animaux. En 1848, la destruction d'une grande partie de ses collections zoologiques par un incendie le conduit à se consacrer principalement à la recherche dans le domaine de l'horticulture et de l'agriculture. 
 Il collabore avec Alfred Brehm, Maksymilian Nowicki et Lorenz Oken. 
 De 1867 à 1869, il est directeur du verger de la société agro-horticole de Lviv. Il est notamment membre de l'Académie polonaise des arts et sciences, de la Société scientifique de Cracovie et de l'Académie allemande des sciences Leopoldina.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Stanis%C5%82aw_Konstanty_Pietruski</t>
+          <t>Stanisław_Konstanty_Pietruski</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,14 +559,16 @@
           <t>Recherches</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Stanisław Konstanty Pietruski est l'auteur de 53 publications[1], y compris :
-Wykaz ptaków galicyjskich, 1840[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Stanisław Konstanty Pietruski est l'auteur de 53 publications, y compris :
+Wykaz ptaków galicyjskich, 1840
 Główne początkowe zasady i określenia nauk przyrody a szczególniej zoologii powszechnej [w] : Przegląd Naukowy, 1846
-Historya naturalna zwierząt ssących dzikich galicyjskich, 1853, Lviv[3]
-Historya naturalna i hodowla ptaków zabawnych i użytecznych, 4 tomes 1860-1866, Lviv[3]
-O niektórych rzadszych krajowych zwierzętach ssących, 1869, Lviv[3]
+Historya naturalna zwierząt ssących dzikich galicyjskich, 1853, Lviv
+Historya naturalna i hodowla ptaków zabawnych i użytecznych, 4 tomes 1860-1866, Lviv
+O niektórych rzadszych krajowych zwierzętach ssących, 1869, Lviv
 Krótki pogląd na rozwój ogrodnictwa w Europie ze szczególnym uwzględnieniem tej sztuki w Polsce, [w] ; Gazeta Narodowa, 1869</t>
         </is>
       </c>
